--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>78400</v>
+      </c>
+      <c r="F8" s="3">
         <v>97700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>114000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>98300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>119800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>112000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>107900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>102800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>94400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>139600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>58300</v>
+      </c>
+      <c r="F9" s="3">
         <v>69400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>80200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>65600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>69600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>62500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>54100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>50600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>52300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>82700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F10" s="3">
         <v>28300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>33800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>32700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>50200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>49500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>53800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>52200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>42100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>56900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="3">
         <v>800</v>
       </c>
       <c r="F12" s="3">
+        <v>900</v>
+      </c>
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>800</v>
+      </c>
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +963,58 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F14" s="3">
         <v>3400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>5100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>6800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F17" s="3">
         <v>83900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>95900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>77300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>85700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>76500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>64700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>62400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>61600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>104800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F18" s="3">
         <v>13800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>18100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>21000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>34100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>35500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>43200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>40400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>32800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>34800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,16 +1176,18 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1129,87 +1196,99 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F21" s="3">
         <v>19600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>22900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>25900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>38800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>40400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>47500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>44500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>37100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>43900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F23" s="3">
         <v>13800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>18100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>21000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>33800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>35900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>43200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>40200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>33200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>36100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>7600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>8500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>18000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>15500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>16900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>26200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>30300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>38000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>32200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>25500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>27600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>18000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>15500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>16900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>26200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>30300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>38000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>32200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>25500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>27600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1467,18 +1588,18 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-300</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,16 +1700,22 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1585,66 +1724,78 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>18000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>15500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>16900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>25900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>30000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>38000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>32200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>25500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>27600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>18000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>15500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>16900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>25900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>30000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>38000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>32200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>25500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>27600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,35 +1965,37 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F41" s="3">
         <v>23300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>20300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>17800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>28300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,8 +2005,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,35 +2049,41 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>121800</v>
+      </c>
+      <c r="F43" s="3">
         <v>113500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>139200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>137300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>160500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>172800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>150200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,35 +2093,41 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>113400</v>
+      </c>
+      <c r="F44" s="3">
         <v>74800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>67500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>84400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>71800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>47300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>52400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,35 +2137,41 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F45" s="3">
         <v>42000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>32300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>34300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>40700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>34700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,35 +2181,41 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>239500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>272000</v>
+      </c>
+      <c r="F46" s="3">
         <v>253600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>259300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>273800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>301300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>241500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>238800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,32 +2225,38 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>76700</v>
+      </c>
+      <c r="F47" s="3">
         <v>68400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>71000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>64100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>63000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>55100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2060,35 +2269,41 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>522300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>485700</v>
+      </c>
+      <c r="F48" s="3">
         <v>403000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>353800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>312500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>275700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>251700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>235300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,35 +2313,41 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,35 +2445,41 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F52" s="3">
         <v>30600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>24400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>18400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>18600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>15900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>76100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,35 +2533,41 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>868700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>859600</v>
+      </c>
+      <c r="F54" s="3">
         <v>756800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>709700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>670100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>660000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>566100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>550300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,35 +2617,37 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>83100</v>
+      </c>
+      <c r="F57" s="3">
         <v>65500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>67800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>61900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>72000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>49600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>45400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2657,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,35 +2701,41 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>39400</v>
+      </c>
+      <c r="F59" s="3">
         <v>24500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>23300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>48400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>18700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>16400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,35 +2745,41 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>122500</v>
+      </c>
+      <c r="F60" s="3">
         <v>90000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>91100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>79100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>120400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>68300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>61800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,29 +2789,35 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>211100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>154600</v>
+      </c>
+      <c r="F61" s="3">
         <v>90100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>59100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>50000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>34000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2548,35 +2833,41 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F62" s="3">
         <v>34800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>35900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>34100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>17700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>18300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>25000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,35 +3009,41 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>327900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>315600</v>
+      </c>
+      <c r="F66" s="3">
         <v>214900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>186100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>163200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>172100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>86600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>86800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,29 +3247,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>76600</v>
+      </c>
+      <c r="F72" s="3">
         <v>76300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>58300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>42800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>25900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,35 +3423,41 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>540800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>544000</v>
+      </c>
+      <c r="F76" s="3">
         <v>541900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>523600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>506900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>487900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>479500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>463500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>18000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>15500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>16900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>25900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>30000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>38000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>32200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>25500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>27600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>4800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>4900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>4700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>7800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F89" s="3">
         <v>23600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>42700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>29500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>44500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>20300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>13600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-51200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-45000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-24300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-30200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-20000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-13900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-9500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-12700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-51200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-48900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-25300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-31400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-20200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-15400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-13800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-25000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4318,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>64600</v>
+      </c>
+      <c r="F100" s="3">
         <v>30900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>9100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>15900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>16100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-12200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>12400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-7500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>8600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>13600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>13200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E8" s="3">
         <v>68500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>78400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>97700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>114000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>98300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>119800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>112000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>107900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>102800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>94400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>139600</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E9" s="3">
         <v>53900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>58300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>69400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>80200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>65600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>69600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>62500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>50600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>82700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E10" s="3">
         <v>14600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>33800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>50200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>49500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>53800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>800</v>
       </c>
       <c r="H12" s="3">
         <v>800</v>
       </c>
       <c r="I12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J12" s="3">
         <v>900</v>
       </c>
       <c r="K12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L12" s="3">
         <v>1000</v>
       </c>
       <c r="M12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +986,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>4800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E17" s="3">
         <v>70700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>83900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>95900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>77300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>85700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>76500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>64700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>61600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>104800</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>34100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>35500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>40400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>34800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,20 +1211,21 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1202,83 +1236,89 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E21" s="3">
         <v>3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>38800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>40400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>47500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>44500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>37100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>43900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1286,12 +1326,12 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>33800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>35900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>43200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>33200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,14 +1655,14 @@
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
-        <v>-300</v>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J29" s="3">
         <v>-300</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>-300</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,20 +1773,23 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1730,72 +1800,78 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,38 +2145,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>94100</v>
+      </c>
+      <c r="E43" s="3">
         <v>91800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>121800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>113500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>139200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>137300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>160500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>172800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>150200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,38 +2192,41 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E44" s="3">
         <v>120900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>113400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>74800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>67500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>84400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>71800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>47300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>52400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2143,38 +2239,41 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E45" s="3">
         <v>15400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>40700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,38 +2286,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E46" s="3">
         <v>239500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>272000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>253600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>259300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>273800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>301300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>241500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>238800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,35 +2333,38 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E47" s="3">
         <v>80900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>76700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>68400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>71000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>64100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>63000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>55100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,38 +2380,41 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>545000</v>
+      </c>
+      <c r="E48" s="3">
         <v>522300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>485700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>403000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>353800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>312500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>275700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>251700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>235300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,38 +2427,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1200</v>
       </c>
       <c r="G49" s="3">
         <v>1200</v>
       </c>
       <c r="H49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I49" s="3">
         <v>1300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E52" s="3">
         <v>24200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>886100</v>
+      </c>
+      <c r="E54" s="3">
         <v>868700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>859600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>756800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>709700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>670100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>660000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>566100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>550300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,38 +2749,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E57" s="3">
         <v>42900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>83100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>67800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>72000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,38 +2841,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E59" s="3">
         <v>35800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,38 +2888,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E60" s="3">
         <v>78700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>122500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>90000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>91100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>79100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>120400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>61800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,32 +2935,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E61" s="3">
         <v>211100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>154600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>90100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>59100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>34000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,38 +2982,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E62" s="3">
         <v>38100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>34800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>314900</v>
+      </c>
+      <c r="E66" s="3">
         <v>327900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>315600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>214900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>186100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>163200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>172100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>86600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3424,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E72" s="3">
         <v>74700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>76600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>76300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>58300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>42800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>25900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>571200</v>
+      </c>
+      <c r="E76" s="3">
         <v>540800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>544000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>541900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>523600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>506900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>487900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>479500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>463500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>4300</v>
       </c>
       <c r="L83" s="3">
         <v>4300</v>
       </c>
       <c r="M83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N83" s="3">
         <v>3900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>42700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>44500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-56000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-63800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-51200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-56300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-64600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-48900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E100" s="3">
         <v>56500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>64600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>30900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>16100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E8" s="3">
         <v>64900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>68500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>78400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>97700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>119800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>112000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>107900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>102800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>94400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>139600</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E9" s="3">
         <v>54700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>53900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>58300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>69400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>80200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>65600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>69600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>62500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>50600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>82700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E10" s="3">
         <v>10200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>50200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>49500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>53800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>800</v>
       </c>
       <c r="I12" s="3">
         <v>800</v>
       </c>
       <c r="J12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K12" s="3">
         <v>900</v>
       </c>
       <c r="L12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M12" s="3">
         <v>1000</v>
       </c>
       <c r="N12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1006,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E17" s="3">
         <v>66900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>83900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>95900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>85700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>64700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>61600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>104800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>34100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>40400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>34800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,23 +1245,24 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1239,89 +1273,95 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E21" s="3">
         <v>3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>38800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>40400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>47500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>44500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>37100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>43900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>2000</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1329,12 +1369,12 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>43200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>33200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>27600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>27600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1658,14 +1719,14 @@
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
-        <v>-300</v>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>-300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>-300</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,23 +1843,26 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1803,75 +1873,81 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E41" s="3">
         <v>17200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,41 +2238,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E43" s="3">
         <v>94100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>91800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>121800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>113500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>139200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>137300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>160500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>172800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>150200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,41 +2288,44 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E44" s="3">
         <v>117000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>113400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>74800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>67500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>84400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>71800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>47300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>52400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2242,41 +2338,44 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E45" s="3">
         <v>11300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,41 +2388,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>253600</v>
+      </c>
+      <c r="E46" s="3">
         <v>239600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>239500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>272000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>253600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>259300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>273800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>301300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>241500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>238800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,38 +2438,41 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E47" s="3">
         <v>80800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>80900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>76700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>68400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>71000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>64100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>63000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,41 +2488,44 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>549800</v>
+      </c>
+      <c r="E48" s="3">
         <v>545000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>522300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>485700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>403000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>353800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>312500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>275700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>251700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>235300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,41 +2538,44 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1200</v>
       </c>
       <c r="H49" s="3">
         <v>1200</v>
       </c>
       <c r="I49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J49" s="3">
         <v>1300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2688,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E52" s="3">
         <v>18500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>903100</v>
+      </c>
+      <c r="E54" s="3">
         <v>886100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>868700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>859600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>756800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>709700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>670100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>660000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>566100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>550300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +2880,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E57" s="3">
         <v>31200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>83100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>65500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>67800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>72000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,41 +2978,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E59" s="3">
         <v>37600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E60" s="3">
         <v>68800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>122500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>90000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>91100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>79100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>120400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>61800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,35 +3078,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E61" s="3">
         <v>208700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>211100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>154600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>90100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>59100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>34000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2985,41 +3128,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E62" s="3">
         <v>37400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>38500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>34800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>34100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>17700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>336500</v>
+      </c>
+      <c r="E66" s="3">
         <v>314900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>327900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>315600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>214900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>186100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>163200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>172100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3598,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E72" s="3">
         <v>74500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>74700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>76600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>76300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>58300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>42800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>25900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>566600</v>
+      </c>
+      <c r="E76" s="3">
         <v>571200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>540800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>544000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>541900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>523600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>506900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>487900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>479500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>463500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>4300</v>
       </c>
       <c r="M83" s="3">
         <v>4300</v>
       </c>
       <c r="N83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O83" s="3">
         <v>3900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>42700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-33200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-56000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-63800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-51200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-30200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-56300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-64600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-48900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E100" s="3">
         <v>34400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>56500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>64600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>30900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>16100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E8" s="3">
         <v>72600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>64900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>68500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>78400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>97700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>114000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>98300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>119800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>112000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>107900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>102800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>94400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>139600</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E9" s="3">
         <v>68100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>54700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>53900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>58300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>69400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>80200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>65600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>69600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>62500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>50600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>82700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E10" s="3">
         <v>4500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>49500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>53800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>42100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>800</v>
       </c>
       <c r="J12" s="3">
         <v>800</v>
       </c>
       <c r="K12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L12" s="3">
         <v>900</v>
       </c>
       <c r="M12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N12" s="3">
         <v>1000</v>
       </c>
       <c r="O12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>6700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
-        <v>4800</v>
-      </c>
       <c r="G14" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E17" s="3">
         <v>85800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>66900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>83900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>95900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>85700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>76500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>104800</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>34100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>35500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>34800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,17 +1288,17 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1276,95 +1309,101 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>38800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>40400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>44500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>37100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1372,12 +1411,12 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,108 +1435,117 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>33200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>36100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1722,14 +1782,14 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>-300</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3">
+        <v>-300</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,17 +1924,17 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1876,78 +1945,84 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E41" s="3">
         <v>14800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,44 +2330,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E43" s="3">
         <v>113100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>94100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>91800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>121800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>113500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>139200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>137300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>160500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>172800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>150200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,44 +2383,47 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E44" s="3">
         <v>114100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>117000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>120900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>113400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>74800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>67500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>84400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>71800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>47300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>52400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2341,44 +2436,47 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E45" s="3">
         <v>11600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,44 +2489,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E46" s="3">
         <v>253600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>239600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>239500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>272000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>253600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>259300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>273800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>301300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>241500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>238800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,41 +2542,44 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E47" s="3">
         <v>79000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>80800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>80900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>76700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>68400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>71000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>64100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,44 +2595,47 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>561400</v>
+      </c>
+      <c r="E48" s="3">
         <v>549800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>545000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>522300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>485700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>403000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>353800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>312500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>275700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>251700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>235300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,44 +2648,47 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E49" s="3">
         <v>2100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1200</v>
       </c>
       <c r="I49" s="3">
         <v>1200</v>
       </c>
       <c r="J49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,44 +2807,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E52" s="3">
         <v>18600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>76100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>936800</v>
+      </c>
+      <c r="E54" s="3">
         <v>903100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>886100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>868700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>859600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>756800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>709700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>670100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>660000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>566100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>550300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3010,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E57" s="3">
         <v>42400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>83100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>65500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>67800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>61900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>72000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,44 +3114,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E59" s="3">
         <v>35800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3167,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E60" s="3">
         <v>78200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>68800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>122500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>90000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>91100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>79100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>68300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>61800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,38 +3220,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>236700</v>
+      </c>
+      <c r="E61" s="3">
         <v>224100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>208700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>211100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>154600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>90100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>59100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>50000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3131,44 +3273,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E62" s="3">
         <v>34200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>37400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>38100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>38500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E66" s="3">
         <v>336500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>314900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>327900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>315600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>214900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>186100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>163200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>172100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E72" s="3">
         <v>62700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>74500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>74700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>76600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>76300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>58300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>42800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>565800</v>
+      </c>
+      <c r="E76" s="3">
         <v>566600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>571200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>540800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>544000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>541900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>523600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>506900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>487900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>479500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>463500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>4300</v>
       </c>
       <c r="N83" s="3">
         <v>4300</v>
       </c>
       <c r="O83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P83" s="3">
         <v>3900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E89" s="3">
         <v>1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>42700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>44500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-56000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-45000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-56300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-64600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-48900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E100" s="3">
         <v>17300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>34400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>56500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>64600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>30900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,95 +5123,101 @@
         <v>400</v>
       </c>
       <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E8" s="3">
         <v>82200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>72600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>64900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>68500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>78400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>97700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>114000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>98300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>119800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>112000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>107900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>102800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>94400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>139600</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E9" s="3">
         <v>71500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>68100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>54700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>53900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>58300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>69400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>80200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>65600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>69600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>62500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>54100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>82700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E10" s="3">
         <v>10700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>49500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>53800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>42100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>800</v>
       </c>
       <c r="K12" s="3">
         <v>800</v>
       </c>
       <c r="L12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M12" s="3">
         <v>900</v>
       </c>
       <c r="N12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O12" s="3">
         <v>1000</v>
       </c>
       <c r="P12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1400</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E17" s="3">
         <v>86100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>85800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>66900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>72700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>83900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>95900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>85700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>61600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>104800</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>35500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>40400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>34800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,29 +1312,30 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1312,101 +1346,107 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E21" s="3">
         <v>3300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>40400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>47500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>44500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>37100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1414,12 +1454,12 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>33800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>35900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>40200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>33200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>36100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>25500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1785,14 +1846,14 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>-300</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3">
+        <v>-300</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,29 +1982,32 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1948,81 +2018,87 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>25900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>25500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>25900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>25500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E41" s="3">
         <v>11600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,47 +2423,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E43" s="3">
         <v>111400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>113100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>94100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>91800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>121800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>113500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>139200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>137300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>160500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>172800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>150200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,47 +2479,50 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E44" s="3">
         <v>105600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>114100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>117000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>120900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>113400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>74800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>67500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>84400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>71800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>47300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>52400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,47 +2535,50 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E45" s="3">
         <v>21200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>241500</v>
+      </c>
+      <c r="E46" s="3">
         <v>249800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>253600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>239600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>239500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>272000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>253600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>259300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>273800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>301300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>241500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>238800</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,44 +2647,47 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E47" s="3">
         <v>98600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>79000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>80800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>80900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>76700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>68400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>71000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>64100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>63000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,47 +2703,50 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>564900</v>
+      </c>
+      <c r="E48" s="3">
         <v>561400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>549800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>545000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>522300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>485700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>403000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>353800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>312500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>275700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>251700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>235300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,47 +2759,50 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1200</v>
       </c>
       <c r="J49" s="3">
         <v>1200</v>
       </c>
       <c r="K49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L49" s="3">
         <v>1300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +2927,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E52" s="3">
         <v>25200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>76100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>928600</v>
+      </c>
+      <c r="E54" s="3">
         <v>936800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>903100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>886100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>868700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>859600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>756800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>709700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>670100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>660000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>566100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>550300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E57" s="3">
         <v>43900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>83100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>65500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>67800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>61900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>72000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,47 +3251,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E59" s="3">
         <v>38400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E60" s="3">
         <v>82300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>68800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>122500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>90000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>91100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>120400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>61800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,41 +3363,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>298900</v>
+      </c>
+      <c r="E61" s="3">
         <v>236700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>224100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>208700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>211100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>154600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>90100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>59100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>50000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,47 +3419,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E62" s="3">
         <v>52000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>34200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>37400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>38100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>38500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>34800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>393000</v>
+      </c>
+      <c r="E66" s="3">
         <v>371000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>336500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>314900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>327900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>315600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>214900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>186100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>163200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>172100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E72" s="3">
         <v>57700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>62700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>74500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>74700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>76600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>76300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>58300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>535600</v>
+      </c>
+      <c r="E76" s="3">
         <v>565800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>566600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>571200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>540800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>544000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>541900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>523600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>506900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>487900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>479500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>463500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>25900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>25500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>4300</v>
       </c>
       <c r="O83" s="3">
         <v>4300</v>
       </c>
       <c r="P83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E89" s="3">
         <v>4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>42700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>44500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-56000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-51200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-45000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-56300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-64600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-51200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-48900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E100" s="3">
         <v>10900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>17300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>34400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>56500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>64600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>30900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>400</v>
       </c>
       <c r="F101" s="3">
+        <v>400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2800</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E8" s="3">
         <v>91700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>82200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>72600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>64900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>68500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>78400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>97700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>114000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>98300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>119800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>112000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>107900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>102800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>94400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>139600</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>80400</v>
+      </c>
+      <c r="E9" s="3">
         <v>77500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>71500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>68100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>53900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>58300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>69400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>80200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>65600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>62500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>54100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>52300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>82700</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E10" s="3">
         <v>14200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>50200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>49500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>42100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,55 +959,58 @@
         <v>700</v>
       </c>
       <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>800</v>
       </c>
       <c r="L12" s="3">
         <v>800</v>
       </c>
       <c r="M12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N12" s="3">
         <v>900</v>
       </c>
       <c r="O12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P12" s="3">
         <v>1000</v>
       </c>
       <c r="Q12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1400</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,64 +1065,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E17" s="3">
         <v>90000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>86100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>85800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>66900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>83900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>95900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>85700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>76500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>64700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>62400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>61600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>104800</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>34100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>35500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>43200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>40400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>34800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,32 +1346,33 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1349,107 +1383,113 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E21" s="3">
         <v>6600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>38800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>47500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>44500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>37100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1457,12 +1497,12 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>33800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>35900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>43200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>33200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>36100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8500</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>27600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>25500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>27600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1849,14 +1910,14 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>-300</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N29" s="3">
         <v>-300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3">
+        <v>-300</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,32 +2052,35 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2021,84 +2091,90 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>25500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>25500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2400,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>216600</v>
+      </c>
+      <c r="E41" s="3">
         <v>21500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,50 +2516,53 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E43" s="3">
         <v>106800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>111400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>113100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>94100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>91800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>121800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>113500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>139200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>137300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>160500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>172800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>150200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,50 +2575,53 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E44" s="3">
         <v>96700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>105600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>114100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>117000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>120900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>113400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>74800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>67500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>84400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>71800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>47300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>52400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,50 +2634,53 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E45" s="3">
         <v>16500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,50 +2693,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>449600</v>
+      </c>
+      <c r="E46" s="3">
         <v>241500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>249800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>253600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>239600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>239500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>272000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>253600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>259300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>273800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>301300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>241500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>238800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,47 +2752,50 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E47" s="3">
         <v>97200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>98600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>79000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>80800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>80900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>76700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>68400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>71000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>64100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>63000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,50 +2811,53 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>580400</v>
+      </c>
+      <c r="E48" s="3">
         <v>564900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>561400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>549800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>545000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>522300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>485700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>403000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>353800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>312500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>275700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>251700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>235300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,50 +2870,53 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1200</v>
       </c>
       <c r="K49" s="3">
         <v>1200</v>
       </c>
       <c r="L49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M49" s="3">
         <v>1300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3047,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E52" s="3">
         <v>23300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3165,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1152500</v>
+      </c>
+      <c r="E54" s="3">
         <v>928600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>936800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>903100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>886100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>868700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>859600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>756800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>709700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>670100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>660000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>566100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>550300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3272,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E57" s="3">
         <v>38700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>83100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>65500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>67800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>61900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>72000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,50 +3388,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E59" s="3">
         <v>21500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>38400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,50 +3447,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E60" s="3">
         <v>60200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>82300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>68800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>78700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>122500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>90000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>91100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>120400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>68300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>61800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,44 +3506,47 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>239700</v>
+      </c>
+      <c r="E61" s="3">
         <v>298900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>236700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>224100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>208700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>211100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>154600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>90100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>59100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>50000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3422,50 +3565,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E62" s="3">
         <v>33900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>52000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>34200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>38100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>38500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3801,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>355400</v>
+      </c>
+      <c r="E66" s="3">
         <v>393000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>371000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>336500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>314900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>327900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>315600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>214900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>186100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>163200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>172100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4119,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E72" s="3">
         <v>59500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>57700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>62700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>74500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>74700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>76600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>76300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>58300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4355,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>797100</v>
+      </c>
+      <c r="E76" s="3">
         <v>535600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>565800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>566600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>571200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>540800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>544000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>541900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>523600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>506900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>487900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>479500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>463500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>25500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>4300</v>
       </c>
       <c r="P83" s="3">
         <v>4300</v>
       </c>
       <c r="Q83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R83" s="3">
         <v>3900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7800</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E89" s="3">
         <v>12700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>29500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>44500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13600</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-56000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-51200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12700</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-33600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-56300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-64600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-51200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>192700</v>
+      </c>
+      <c r="E100" s="3">
         <v>24200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>17300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>34400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>56500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>64600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>30900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8600</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>400</v>
       </c>
       <c r="G101" s="3">
+        <v>400</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>195100</v>
+      </c>
+      <c r="E102" s="3">
         <v>9900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2800</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E8" s="3">
         <v>102200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>91700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>72600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>64900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>68500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>78400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>97700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>114000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>98300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>119800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>112000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>107900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>102800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>94400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>139600</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E9" s="3">
         <v>80400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>77500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>71500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>68100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>54700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>53900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>58300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>69400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>80200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>65600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>62500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>54100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>82700</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E10" s="3">
         <v>21800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>53800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>52200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>42100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>56900</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E12" s="3">
         <v>700</v>
       </c>
       <c r="F12" s="3">
+        <v>700</v>
+      </c>
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>800</v>
       </c>
       <c r="M12" s="3">
         <v>800</v>
       </c>
       <c r="N12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O12" s="3">
         <v>900</v>
       </c>
       <c r="P12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q12" s="3">
         <v>1000</v>
       </c>
       <c r="R12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S12" s="3">
         <v>900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
         <v>3900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>99800</v>
+      </c>
+      <c r="E17" s="3">
         <v>96800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>90000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>86100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>85800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>66900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>72700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>83900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>95900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>85700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>76500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>64700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>62400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>61600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>104800</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>34100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>35500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>40400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>34800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,35 +1380,36 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1386,87 +1420,93 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E21" s="3">
         <v>10300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>47500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>44500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>37100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>43900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,25 +1514,25 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1500,12 +1540,12 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>33800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>43200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>33200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>36100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8500</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E26" s="3">
         <v>6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>27600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E27" s="3">
         <v>6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>25500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>27600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1913,14 +1974,14 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
-        <v>-300</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O29" s="3">
         <v>-300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3">
+        <v>-300</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,35 +2122,38 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2094,87 +2164,93 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E33" s="3">
         <v>6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>25500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>27600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E35" s="3">
         <v>6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>25500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>27600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,53 +2487,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E41" s="3">
         <v>216600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,53 +2609,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E43" s="3">
         <v>113100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>106800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>111400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>113100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>94100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>91800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>121800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>113500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>139200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>137300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>160500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>172800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>150200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,53 +2671,56 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>110200</v>
+      </c>
+      <c r="E44" s="3">
         <v>105300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>96700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>105600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>114100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>117000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>120900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>113400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>74800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>67500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>84400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>71800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>47300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>52400</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,53 +2733,56 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E45" s="3">
         <v>14600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>40700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,53 +2795,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>432300</v>
+      </c>
+      <c r="E46" s="3">
         <v>449600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>241500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>249800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>253600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>239600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>239500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>272000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>253600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>259300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>273800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>301300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>241500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>238800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,50 +2857,53 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E47" s="3">
         <v>92900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>97200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>98600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>79000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>80800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>80900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>76700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>68400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>71000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>64100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>63000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,53 +2919,56 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>611700</v>
+      </c>
+      <c r="E48" s="3">
         <v>580400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>564900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>561400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>549800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>545000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>522300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>485700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>403000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>353800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>312500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>275700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>251700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>235300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,53 +2981,56 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1200</v>
       </c>
       <c r="L49" s="3">
         <v>1200</v>
       </c>
       <c r="M49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N49" s="3">
         <v>1300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,53 +3167,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E52" s="3">
         <v>28000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>76100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1151000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1152500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>928600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>936800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>903100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>886100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>868700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>859600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>756800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>709700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>670100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>660000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>566100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>550300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,53 +3403,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E57" s="3">
         <v>47700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>83100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>65500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>67800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>61900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>72000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,53 +3525,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E59" s="3">
         <v>32100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>38400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,53 +3587,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E60" s="3">
         <v>79800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>82300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>68800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>78700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>122500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>90000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>91100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>79100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>120400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>68300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>61800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,47 +3649,50 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>240100</v>
+      </c>
+      <c r="E61" s="3">
         <v>239700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>298900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>236700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>224100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>208700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>211100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>154600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>90100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>59100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>50000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3568,53 +3711,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E62" s="3">
         <v>35900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>34200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>38100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>38500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>366500</v>
+      </c>
+      <c r="E66" s="3">
         <v>355400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>393000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>371000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>336500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>314900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>327900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>315600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>214900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>186100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>163200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>172100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,47 +4293,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E72" s="3">
         <v>66000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>59500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>57700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>62700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>74500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>74700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>76600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>76300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>58300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>784500</v>
+      </c>
+      <c r="E76" s="3">
         <v>797100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>535600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>565800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>566600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>571200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>540800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>544000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>541900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>523600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>506900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>487900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>479500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>463500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E81" s="3">
         <v>6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>25500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>27600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>4300</v>
       </c>
       <c r="Q83" s="3">
         <v>4300</v>
       </c>
       <c r="R83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S83" s="3">
         <v>3900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E89" s="3">
         <v>17900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>42700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>29500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>44500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-56000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-63800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-51200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12700</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-33600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-56300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-64600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>192700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>24200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>34400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>56500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>64600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>30900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>16100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>400</v>
       </c>
       <c r="H101" s="3">
+        <v>400</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E102" s="3">
         <v>195100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2800</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E8" s="3">
         <v>103600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>102200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>91700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>82200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>72600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>64900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>68500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>97700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>114000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>98300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>119800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>112000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>107900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>102800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>94400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>139600</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E9" s="3">
         <v>83400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>80400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>77500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>71500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>68100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>54700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>53900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>58300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>69400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>80200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>65600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>69600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>62500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>54100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>52300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>82700</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E10" s="3">
         <v>20200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>49500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>53800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>52200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>42100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,61 +986,64 @@
         <v>800</v>
       </c>
       <c r="E12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>700</v>
       </c>
       <c r="G12" s="3">
+        <v>700</v>
+      </c>
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>800</v>
       </c>
       <c r="N12" s="3">
         <v>800</v>
       </c>
       <c r="O12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P12" s="3">
         <v>900</v>
       </c>
       <c r="Q12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="R12" s="3">
         <v>1000</v>
       </c>
       <c r="S12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T12" s="3">
         <v>900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>200</v>
-      </c>
       <c r="H14" s="3">
+        <v>700</v>
+      </c>
+      <c r="I14" s="3">
         <v>6700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>900</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E17" s="3">
         <v>99800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>96800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>90000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>86100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>85800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>66900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>83900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>95900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>77300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>85700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>76500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>61600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>104800</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>34100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>35500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>40400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>32800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>34800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,38 +1413,39 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1423,90 +1456,96 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1300</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E21" s="3">
         <v>9000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6600</v>
       </c>
-      <c r="G21" s="3">
-        <v>3300</v>
-      </c>
       <c r="H21" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-7200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>40400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>47500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>44500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>37100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>43900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1517,25 +1556,25 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1543,12 +1582,12 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1567,132 +1606,141 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-5700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-15300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>33800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>33200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>36100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E24" s="3">
         <v>15400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
-        <v>-700</v>
-      </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-3500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8500</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-11800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>25500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>27600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-11800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>25500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>27600</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1977,14 +2037,14 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
-        <v>-300</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P29" s="3">
         <v>-300</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3">
+        <v>-300</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,38 +2191,41 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2167,90 +2236,96 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1300</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-11800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>25500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>27600</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-11800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>25500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>27600</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E41" s="3">
         <v>195300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>216600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,56 +2701,59 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E43" s="3">
         <v>113200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>113100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>106800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>111400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>113100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>94100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>91800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>121800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>113500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>139200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>137300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>160500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>172800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>150200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2674,56 +2766,59 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E44" s="3">
         <v>110200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>105300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>96700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>105600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>114100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>117000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>120900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>113400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>74800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>67500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>84400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>71800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>47300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>52400</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,56 +2831,59 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E45" s="3">
         <v>13600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,56 +2896,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>399300</v>
+      </c>
+      <c r="E46" s="3">
         <v>432300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>449600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>241500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>249800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>253600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>239600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>239500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>272000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>253600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>259300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>273800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>301300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>241500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>238800</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,53 +2961,56 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E47" s="3">
         <v>92300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>92900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>97200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>98600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>79000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>80800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>80900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>76700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>68400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>71000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>64100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>63000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2922,56 +3026,59 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>684200</v>
+      </c>
+      <c r="E48" s="3">
         <v>611700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>580400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>564900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>561400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>549800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>545000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>522300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>485700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>403000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>353800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>312500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>275700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>251700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>235300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2993,47 +3103,47 @@
         <v>1500</v>
       </c>
       <c r="E49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F49" s="3">
         <v>1600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1200</v>
       </c>
       <c r="M49" s="3">
         <v>1200</v>
       </c>
       <c r="N49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O49" s="3">
         <v>1300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,56 +3286,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E52" s="3">
         <v>13200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>76100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3416,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1202500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1151000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1152500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>928600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>936800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>903100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>886100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>868700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>859600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>756800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>709700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>670100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>660000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>566100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>550300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,56 +3533,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E57" s="3">
         <v>49700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>42900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>83100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>65500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>67800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>61900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>72000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>49600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,56 +3661,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E59" s="3">
         <v>39000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>38400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>37600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>35800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,56 +3726,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E60" s="3">
         <v>88700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>79800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>82300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>78200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>68800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>122500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>91100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>79100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>120400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>68300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>61800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,50 +3791,53 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>240400</v>
+      </c>
+      <c r="E61" s="3">
         <v>240100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>239700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>298900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>236700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>224100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>208700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>211100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>154600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>90100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>59100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>50000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3714,56 +3856,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E62" s="3">
         <v>37700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>35900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>52000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>37400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>38100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>38500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4116,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>407100</v>
+      </c>
+      <c r="E66" s="3">
         <v>366500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>355400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>393000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>371000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>336500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>314900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>327900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>315600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>214900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>186100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>163200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>172100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,50 +4466,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E72" s="3">
         <v>53400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>66000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>59500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>57700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>62700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>74500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>74700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>76600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>76300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>58300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>795400</v>
+      </c>
+      <c r="E76" s="3">
         <v>784500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>797100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>535600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>565800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>566600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>571200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>540800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>544000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>541900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>523600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>506900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>487900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>479500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>463500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-11800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>25500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>27600</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>4300</v>
       </c>
       <c r="R83" s="3">
         <v>4300</v>
       </c>
       <c r="S83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T83" s="3">
         <v>3900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E89" s="3">
         <v>10400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>42700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>29500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>44500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>20300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13600</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-56000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-63800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-51200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12700</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-56300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>192700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>24200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>17300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>34400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>56500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>64600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>30900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>16100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8600</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>400</v>
       </c>
       <c r="I101" s="3">
+        <v>400</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>195100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2800</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E8" s="3">
         <v>122900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>103600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>102200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>91700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>82200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>72600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>64900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>78400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>97700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>114000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>98300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>119800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>112000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>107900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>102800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>94400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>139600</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E9" s="3">
         <v>85500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>83400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>80400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>77500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>71500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>68100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>54700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>58300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>80200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>65600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>69600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>62500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>54100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>52300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>82700</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E10" s="3">
         <v>37400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>49500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>53800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>52200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>42100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>56900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
         <v>800</v>
       </c>
       <c r="F12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G12" s="3">
         <v>700</v>
       </c>
       <c r="H12" s="3">
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>800</v>
       </c>
       <c r="O12" s="3">
         <v>800</v>
       </c>
       <c r="P12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q12" s="3">
         <v>900</v>
       </c>
       <c r="R12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="S12" s="3">
         <v>1000</v>
       </c>
       <c r="T12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U12" s="3">
         <v>900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1400</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-38000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>900</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E17" s="3">
         <v>104100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>99800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>96800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>90000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>86100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>85800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>66900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>83900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>95900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>77300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>85700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>76500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>64700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>61600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>104800</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E18" s="3">
         <v>18800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>34100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>35500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>40400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>32800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>34800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,41 +1447,42 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1459,93 +1493,99 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E21" s="3">
         <v>23400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>38800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>40400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>47500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>44500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>37100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>43900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1559,25 +1599,25 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1585,12 +1625,12 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E23" s="3">
         <v>17000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>33800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>35900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>43200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>40200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>33200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>36100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>9500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8500</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E26" s="3">
         <v>7500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>25500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>27600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E27" s="3">
         <v>7500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>25500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>27600</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,31 +2057,34 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -2040,14 +2101,14 @@
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
-        <v>-300</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
         <v>-300</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
+      <c r="R29" s="3">
+        <v>-300</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,41 +2261,44 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2239,93 +2309,99 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E33" s="3">
         <v>7500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>25900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>30000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>25500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>27600</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E35" s="3">
         <v>7500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>25900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>30000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>25500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>27600</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E41" s="3">
         <v>113000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>195300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>216600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,59 +2794,62 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E43" s="3">
         <v>129700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>113200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>113100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>106800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>111400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>113100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>94100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>91800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>121800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>113500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>139200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>137300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>160500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>172800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>150200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,59 +2862,62 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E44" s="3">
         <v>134600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>110200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>105300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>96700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>105600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>114100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>117000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>120900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>113400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>74800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>67500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>84400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>71800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>47300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>52400</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2834,59 +2930,62 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E45" s="3">
         <v>22000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,59 +2998,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>364500</v>
+      </c>
+      <c r="E46" s="3">
         <v>399300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>432300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>449600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>241500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>249800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>253600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>239600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>239500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>272000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>253600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>259300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>273800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>301300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>241500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>238800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,56 +3066,59 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E47" s="3">
         <v>100300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>92300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>97200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>98600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>79000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>80800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>80900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>76700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>68400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>71000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>64100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>63000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,59 +3134,62 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>743800</v>
+      </c>
+      <c r="E48" s="3">
         <v>684200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>611700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>580400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>564900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>561400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>549800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>545000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>522300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>485700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>403000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>353800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>312500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>275700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>251700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>235300</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,59 +3202,62 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E49" s="3">
         <v>1500</v>
       </c>
       <c r="F49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G49" s="3">
         <v>1600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1200</v>
       </c>
       <c r="N49" s="3">
         <v>1200</v>
       </c>
       <c r="O49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P49" s="3">
         <v>1300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,59 +3406,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E52" s="3">
         <v>17200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>76100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1242600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1202500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1151000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1152500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>928600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>936800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>903100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>886100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>868700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>859600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>756800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>709700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>670100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>660000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>566100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>550300</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,59 +3664,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E57" s="3">
         <v>65400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>43900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>83100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>65500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>67800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>61900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>72000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>49600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,59 +3798,62 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E59" s="3">
         <v>65900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>39000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>38400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>37600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,59 +3866,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E60" s="3">
         <v>131300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>79800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>60200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>82300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>78200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>122500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>91100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>79100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>120400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>68300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>61800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,53 +3934,56 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>240800</v>
+      </c>
+      <c r="E61" s="3">
         <v>240400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>240100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>239700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>298900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>236700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>224100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>208700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>211100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>154600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>90100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>59100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>50000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3859,59 +4002,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E62" s="3">
         <v>35400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>37700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>52000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>34200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>38100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>38500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>393600</v>
+      </c>
+      <c r="E66" s="3">
         <v>407100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>366500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>355400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>393000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>371000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>336500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>314900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>327900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>315600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>214900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>186100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>163200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>172100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,53 +4640,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E72" s="3">
         <v>60900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>66000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>59500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>57700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>62700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>74500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>74700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>76600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>76300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>58300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>849000</v>
+      </c>
+      <c r="E76" s="3">
         <v>795400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>784500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>797100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>535600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>565800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>566600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>571200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>540800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>544000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>541900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>523600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>506900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>487900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>479500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>463500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E81" s="3">
         <v>7500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>25900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>30000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>25500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>27600</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,64 +5227,67 @@
         <v>6400</v>
       </c>
       <c r="E83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F83" s="3">
         <v>6200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>4300</v>
       </c>
       <c r="S83" s="3">
         <v>4300</v>
       </c>
       <c r="T83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U83" s="3">
         <v>3900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>29500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>44500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>20300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13600</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-68700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-62500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-33200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-51200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12700</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-33600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-51200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-20200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25000</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>192700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>17300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>34400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>56500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>64600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>12400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8600</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>400</v>
       </c>
       <c r="J101" s="3">
+        <v>400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-82300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>195100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2800</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>218700</v>
+      </c>
+      <c r="E8" s="3">
         <v>143500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>103600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>102200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>91700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>82200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>72600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>64900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>78400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>97700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>114000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>98300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>119800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>112000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>107900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>102800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>94400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>139600</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>115500</v>
+      </c>
+      <c r="E9" s="3">
         <v>82800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>85500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>83400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>80400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>77500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>71500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>68100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>58300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>80200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>65600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>69600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>62500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>54100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>50600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>52300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>82700</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>103200</v>
+      </c>
+      <c r="E10" s="3">
         <v>60700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>49500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>53800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>52200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>42100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>56900</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>800</v>
       </c>
       <c r="G12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H12" s="3">
         <v>700</v>
       </c>
       <c r="I12" s="3">
+        <v>700</v>
+      </c>
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
-      </c>
-      <c r="O12" s="3">
-        <v>800</v>
       </c>
       <c r="P12" s="3">
         <v>800</v>
       </c>
       <c r="Q12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R12" s="3">
         <v>900</v>
       </c>
       <c r="S12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T12" s="3">
         <v>1000</v>
       </c>
       <c r="U12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V12" s="3">
         <v>900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1400</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1144,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-38000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>900</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E17" s="3">
         <v>97400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>104100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>99800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>96800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>90000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>86100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>85800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>66900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>83900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>95900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>85700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>76500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>64700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>62400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>61600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>104800</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E18" s="3">
         <v>46100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>34100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>35500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>43200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>40400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>32800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>34800</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,44 +1481,45 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E20" s="3">
         <v>11800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1496,96 +1530,102 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1300</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E21" s="3">
         <v>64300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>38800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>47500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>44500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>37100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>43900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1602,25 +1642,25 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1628,12 +1668,12 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E23" s="3">
         <v>57900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>33800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>35900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>43200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>40200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>33200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>36100</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E24" s="3">
         <v>4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8500</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E26" s="3">
         <v>53200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>25500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>27600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E27" s="3">
         <v>53200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>25500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>27600</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,8 +2147,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
@@ -2104,14 +2165,14 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
-        <v>-300</v>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R29" s="3">
         <v>-300</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
+      <c r="S29" s="3">
+        <v>-300</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,44 +2331,47 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2312,96 +2382,102 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1300</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E33" s="3">
         <v>53200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>25900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>25500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>27600</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E35" s="3">
         <v>53200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>25900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>25500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>27600</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,62 +2747,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E41" s="3">
         <v>68500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>113000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>195300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>216600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,8 +2816,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,62 +2887,65 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E43" s="3">
         <v>127500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>129700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>113200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>113100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>106800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>111400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>113100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>94100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>91800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>121800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>113500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>139200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>137300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>160500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>172800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>150200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,62 +2958,65 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E44" s="3">
         <v>150500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>134600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>110200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>105300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>96700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>105600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>114100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>117000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>120900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>113400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>74800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>67500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>84400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>71800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>47300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>52400</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,62 +3029,65 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E45" s="3">
         <v>18000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>42000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,62 +3100,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>386300</v>
+      </c>
+      <c r="E46" s="3">
         <v>364500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>399300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>432300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>449600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>241500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>249800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>253600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>239600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>239500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>272000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>253600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>259300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>273800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>301300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>241500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>238800</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3069,59 +3171,62 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>512500</v>
+      </c>
+      <c r="E47" s="3">
         <v>117100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>92900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>97200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>98600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>79000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>80800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>80900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>76700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>68400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>71000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>64100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>63000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>55100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3137,62 +3242,65 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>808700</v>
+      </c>
+      <c r="E48" s="3">
         <v>743800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>684200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>611700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>580400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>564900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>561400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>549800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>545000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>522300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>485700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>403000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>353800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>312500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>275700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>251700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>235300</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,53 +3325,53 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F49" s="3">
         <v>1500</v>
       </c>
       <c r="G49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H49" s="3">
         <v>1600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1200</v>
       </c>
       <c r="O49" s="3">
         <v>1200</v>
       </c>
       <c r="P49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,62 +3526,65 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E52" s="3">
         <v>15800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>30600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>76100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,62 +3668,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1721400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1242600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1202500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1151000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1152500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>928600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>936800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>903100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>886100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>868700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>859600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>756800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>709700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>670100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>660000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>566100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>550300</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,62 +3795,63 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E57" s="3">
         <v>62200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>65400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>42400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>83100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>65500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>67800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>61900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>72000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>49600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45400</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3733,31 +3864,34 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>13500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3801,62 +3935,65 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E59" s="3">
         <v>58100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>38400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>35800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>37600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,62 +4006,65 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E60" s="3">
         <v>120300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>131300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>79800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>60200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>82300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>122500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>90000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>91100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>79100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>120400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>68300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>61800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,56 +4077,59 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>241200</v>
+      </c>
+      <c r="E61" s="3">
         <v>240800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>240400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>240100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>239700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>298900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>236700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>224100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>208700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>211100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>154600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>90100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>59100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>50000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4005,62 +4148,65 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E62" s="3">
         <v>32500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>35400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>37700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>33900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>38100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>38500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,62 +4432,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>441300</v>
+      </c>
+      <c r="E66" s="3">
         <v>393600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>407100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>366500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>355400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>393000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>371000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>336500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>314900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>327900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>315600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>214900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>186100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>163200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>172100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>86800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,56 +4814,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>174100</v>
+      </c>
+      <c r="E72" s="3">
         <v>114100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>60900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>66000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>59500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>57700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>62700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>74500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>74700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>76600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>76300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>58300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>42800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,62 +5098,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1280100</v>
+      </c>
+      <c r="E76" s="3">
         <v>849000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>795400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>784500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>797100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>535600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>565800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>566600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>571200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>540800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>544000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>541900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>523600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>506900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>487900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>479500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>463500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E81" s="3">
         <v>53200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>25900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>25500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>27600</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5230,64 +5429,67 @@
         <v>6400</v>
       </c>
       <c r="F83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G83" s="3">
         <v>6200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>4300</v>
       </c>
       <c r="T83" s="3">
         <v>4300</v>
       </c>
       <c r="U83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="V83" s="3">
         <v>3900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7800</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E89" s="3">
         <v>10800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>29500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>44500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>20300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13600</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-68700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-62500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-51200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12700</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-68700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-55400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-51200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-48900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-25000</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,199 +6545,208 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>192700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>17300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>34400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>56500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>64600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>30900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>12400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-7500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8600</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>400</v>
       </c>
       <c r="K101" s="3">
+        <v>400</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-44500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-82300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>195100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2800</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>231600</v>
+      </c>
+      <c r="E8" s="3">
         <v>218700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>143500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>103600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>102200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>91700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>82200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>72600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>64900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>68500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>78400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>97700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>114000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>98300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>119800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>112000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>107900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>102800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>94400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>139600</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E9" s="3">
         <v>115500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>82800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>85500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>83400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>80400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>77500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>71500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>68100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>58300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>69400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>80200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>65600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>69600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>62500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>54100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>50600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>52300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>82700</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E10" s="3">
         <v>103200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>60700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>49500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>53800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>52200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>42100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>56900</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>800</v>
       </c>
       <c r="G12" s="3">
         <v>800</v>
       </c>
       <c r="H12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I12" s="3">
         <v>700</v>
       </c>
       <c r="J12" s="3">
+        <v>700</v>
+      </c>
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>800</v>
       </c>
       <c r="Q12" s="3">
         <v>800</v>
       </c>
       <c r="R12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S12" s="3">
         <v>900</v>
       </c>
       <c r="T12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="U12" s="3">
         <v>1000</v>
       </c>
       <c r="V12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W12" s="3">
         <v>900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,79 +1164,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
         <v>3900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-38000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>900</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E17" s="3">
         <v>134000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>97400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>104100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>99800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>96800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>90000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>86100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>85800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>66900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>83900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>95900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>77300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>85700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>76500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>64700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>62400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>61600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>104800</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E18" s="3">
         <v>84700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>34100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>35500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>43200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>40400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>32800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>34800</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,47 +1515,48 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>5500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1533,99 +1567,105 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1300</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E21" s="3">
         <v>96600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>64300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>40400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>47500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>44500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>37100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>43900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1645,25 +1685,25 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1671,12 +1711,12 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1695,150 +1735,159 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E23" s="3">
         <v>90200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>57900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>17000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>13800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>33800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>35900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>43200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>40200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>33200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>36100</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E24" s="3">
         <v>30200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8500</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E26" s="3">
         <v>60000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>53200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>30300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>38000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>32200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>25500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>27600</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E27" s="3">
         <v>60000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>53200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>32200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>25500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>27600</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2150,8 +2211,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -2168,14 +2229,14 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
-        <v>-300</v>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S29" s="3">
         <v>-300</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
+      <c r="T29" s="3">
+        <v>-300</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,47 +2401,50 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2385,99 +2455,105 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1300</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E33" s="3">
         <v>60000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>53200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>25900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>30000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>38000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>25500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>27600</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E35" s="3">
         <v>60000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>53200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>25900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>30000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>38000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>25500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>27600</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,65 +2834,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>211600</v>
+      </c>
+      <c r="E41" s="3">
         <v>49000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>113000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>195300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>216600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1500</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,8 +2906,11 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,65 +2980,68 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>196400</v>
+      </c>
+      <c r="E43" s="3">
         <v>164600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>127500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>129700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>113200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>113100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>106800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>111400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>113100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>94100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>91800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>121800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>113500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>139200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>137300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>160500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>172800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>150200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,65 +3054,68 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E44" s="3">
         <v>156300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>150500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>134600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>110200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>105300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>96700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>105600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>114100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>117000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>120900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>113400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>74800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>67500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>84400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>71800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>47300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>52400</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,65 +3128,68 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E45" s="3">
         <v>16400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>40700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>34700</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3103,65 +3202,68 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>573900</v>
+      </c>
+      <c r="E46" s="3">
         <v>386300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>364500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>399300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>432300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>449600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>241500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>249800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>253600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>239600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>239500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>272000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>253600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>259300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>273800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>301300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>241500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>238800</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3174,62 +3276,65 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>530600</v>
+      </c>
+      <c r="E47" s="3">
         <v>512500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>117100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>92300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>92900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>97200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>98600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>79000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>80800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>80900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>76700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>68400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>71000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>64100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>63000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>55100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3245,65 +3350,68 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>887100</v>
+      </c>
+      <c r="E48" s="3">
         <v>808700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>743800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>684200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>611700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>580400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>564900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>561400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>549800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>545000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>522300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>485700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>403000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>353800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>312500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>275700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>251700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>235300</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,65 +3424,68 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3">
         <v>1400</v>
       </c>
       <c r="F49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G49" s="3">
         <v>1500</v>
       </c>
       <c r="H49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I49" s="3">
         <v>1600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1200</v>
       </c>
       <c r="P49" s="3">
         <v>1200</v>
       </c>
       <c r="Q49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R49" s="3">
         <v>1300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,65 +3646,68 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E52" s="3">
         <v>12500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>30600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>15900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>76100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,65 +3794,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2007300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1721400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1242600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1202500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1151000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1152500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>928600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>936800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>903100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>886100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>868700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>859600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>756800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>709700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>670100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>660000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>566100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>550300</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,65 +3926,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E57" s="3">
         <v>82900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>83100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>65500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>67800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>61900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>72000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>45400</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,16 +3998,19 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>13500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>13500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -3893,8 +4027,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3938,65 +4072,68 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E59" s="3">
         <v>52400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>65900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>38400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>37600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4009,65 +4146,68 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E60" s="3">
         <v>148800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>120300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>131300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>79800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>60200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>82300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>68800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>122500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>90000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>91100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>79100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>120400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>68300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>61800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4080,59 +4220,62 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>241600</v>
+      </c>
+      <c r="E61" s="3">
         <v>241200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>240800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>240400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>240100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>239700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>298900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>236700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>224100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>208700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>211100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>154600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>90100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>59100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>50000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4151,65 +4294,68 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>248100</v>
+      </c>
+      <c r="E62" s="3">
         <v>51300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>33900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>38100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>38500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,65 +4590,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>652700</v>
+      </c>
+      <c r="E66" s="3">
         <v>441300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>393600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>407100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>366500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>355400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>393000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>371000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>336500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>314900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>327900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>315600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>214900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>186100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>163200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>172100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>86600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,59 +4988,62 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>251700</v>
+      </c>
+      <c r="E72" s="3">
         <v>174100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>114100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>66000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>59500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>57700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>62700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>74500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>74700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>76600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>76300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>58300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>25900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,65 +5284,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1354600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1280100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>849000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>795400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>784500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>797100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>535600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>565800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>566600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>571200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>540800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>544000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>541900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>523600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>506900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>487900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>479500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>463500</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E81" s="3">
         <v>60000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>53200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>25900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>30000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>38000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>25500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>27600</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,13 +5615,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E83" s="3">
         <v>6400</v>
@@ -5432,64 +5631,67 @@
         <v>6400</v>
       </c>
       <c r="G83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H83" s="3">
         <v>6200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>4300</v>
       </c>
       <c r="U83" s="3">
         <v>4300</v>
       </c>
       <c r="V83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W83" s="3">
         <v>3900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E89" s="3">
         <v>50400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>42700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>29500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>44500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>18900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>20300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13600</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-67900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-68700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-62500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-63800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-51200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12700</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-68700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-55400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-56300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-51200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-48900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-20200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-13800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-25000</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>-1200</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>192700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>24200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>17300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>34400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>56500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>64600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>30900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>16100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>12400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-7500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8600</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-1600</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
       </c>
       <c r="L101" s="3">
+        <v>400</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-44500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-82300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>195100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2800</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>219400</v>
+      </c>
+      <c r="E8" s="3">
         <v>231600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>218700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>143500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>102200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>91700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>82200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>72600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>64900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>68500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>78400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>97700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>114000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>98300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>119800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>112000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>107900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>102800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>94400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>139600</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E9" s="3">
         <v>111600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>115500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>82800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>85500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>83400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>80400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>77500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>71500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>68100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>58300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>69400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>80200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>65600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>69600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>62500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>54100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>52300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>82700</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E10" s="3">
         <v>120000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>103200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>60700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>50200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>49500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>53800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>52200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>42100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>56900</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>800</v>
       </c>
       <c r="H12" s="3">
         <v>800</v>
       </c>
       <c r="I12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
       </c>
       <c r="K12" s="3">
+        <v>700</v>
+      </c>
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>800</v>
       </c>
       <c r="R12" s="3">
         <v>800</v>
       </c>
       <c r="S12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T12" s="3">
         <v>900</v>
       </c>
       <c r="U12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V12" s="3">
         <v>1000</v>
       </c>
       <c r="W12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X12" s="3">
         <v>900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1400</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-38000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>900</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>124500</v>
+      </c>
+      <c r="E17" s="3">
         <v>129000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>134000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>97400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>104100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>96800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>90000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>85800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>66900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>72700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>83900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>95900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>77300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>85700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>76500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>64700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>61600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>104800</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E18" s="3">
         <v>102600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>84700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>34100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>35500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>40400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>32800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>34800</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,50 +1548,51 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1570,102 +1603,108 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1300</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E21" s="3">
         <v>105700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>96600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>64300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>40400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>47500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>44500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>37100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>43900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1688,25 +1727,25 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1714,12 +1753,12 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,156 +1777,165 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E23" s="3">
         <v>99100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>90200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>57900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>13800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>18100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>33800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>35900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>43200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>40200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>33200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>36100</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E24" s="3">
         <v>21500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8500</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E26" s="3">
         <v>77600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>60000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>30300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>38000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>32200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>25500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>27600</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E27" s="3">
         <v>77600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>60000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>26200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>32200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>25500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>27600</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2214,8 +2274,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
@@ -2232,14 +2292,14 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="3">
-        <v>-300</v>
+      <c r="S29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T29" s="3">
         <v>-300</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>3</v>
+      <c r="U29" s="3">
+        <v>-300</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>3</v>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,50 +2470,53 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E32" s="3">
         <v>3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2458,102 +2527,108 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E33" s="3">
         <v>77600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>60000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>53200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>25900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>30000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>38000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>32200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>25500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>27600</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E35" s="3">
         <v>77600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>60000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>53200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>25900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>30000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>38000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>32200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>25500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>27600</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,68 +2920,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E41" s="3">
         <v>211600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>113000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>195300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>216600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2909,8 +2995,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,68 +3072,71 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E43" s="3">
         <v>196400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>164600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>127500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>129700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>113200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>113100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>106800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>111400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>113100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>94100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>91800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>121800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>113500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>139200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>137300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>160500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>172800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>150200</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,68 +3149,71 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>152300</v>
+      </c>
+      <c r="E44" s="3">
         <v>141800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>156300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>150500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>134600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>110200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>105300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>96700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>105600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>114100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>117000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>120900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>113400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>74800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>67500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>84400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>71800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>47300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>52400</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3131,68 +3226,71 @@
       <c r="Z44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E45" s="3">
         <v>24100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>40700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>34700</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,68 +3303,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E46" s="3">
         <v>573900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>386300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>364500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>399300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>432300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>449600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>241500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>249800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>253600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>239600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>239500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>272000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>253600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>259300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>273800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>301300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>241500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>238800</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3279,65 +3380,68 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>541500</v>
+      </c>
+      <c r="E47" s="3">
         <v>530600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>512500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>117100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>92300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>92900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>97200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>98600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>79000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>80800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>80900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>76700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>68400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>71000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>64100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>63000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>55100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,68 +3457,71 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>973100</v>
+      </c>
+      <c r="E48" s="3">
         <v>887100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>808700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>743800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>684200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>611700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>580400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>564900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>561400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>549800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>545000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>522300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>485700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>403000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>353800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>312500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>275700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>251700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>235300</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3427,68 +3534,71 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1400</v>
       </c>
       <c r="F49" s="3">
         <v>1400</v>
       </c>
       <c r="G49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H49" s="3">
         <v>1500</v>
       </c>
       <c r="I49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J49" s="3">
         <v>1600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1200</v>
       </c>
       <c r="Q49" s="3">
         <v>1200</v>
       </c>
       <c r="R49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S49" s="3">
         <v>1300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3658,59 +3777,59 @@
         <v>14200</v>
       </c>
       <c r="E52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F52" s="3">
         <v>12500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>30600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>76100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3919,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2074200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2007300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1721400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1242600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1202500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1151000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1152500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>928600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>936800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>903100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>886100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>868700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>859600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>756800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>709700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>670100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>660000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>566100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>550300</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,68 +4056,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E57" s="3">
         <v>72200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>82900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>62200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>65400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>47700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>83100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>65500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>67800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>61900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>72000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>49600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>45400</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,19 +4131,22 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>13500</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>13500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>13500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -4030,8 +4163,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4075,68 +4208,71 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E59" s="3">
         <v>77300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>52400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>65900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>37600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16400</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4149,68 +4285,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E60" s="3">
         <v>163000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>148800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>120300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>131300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>79800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>60200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>82300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>78700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>122500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>90000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>91100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>79100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>120400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>68300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>61800</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4223,62 +4362,65 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>241900</v>
+      </c>
+      <c r="E61" s="3">
         <v>241600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>241200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>240800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>240400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>240100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>239700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>298900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>236700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>224100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>208700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>211100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>154600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>90100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>59100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>50000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>34000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4297,68 +4439,71 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>240600</v>
+      </c>
+      <c r="E62" s="3">
         <v>248100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>38100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25000</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4747,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>631200</v>
+      </c>
+      <c r="E66" s="3">
         <v>652700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>441300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>393600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>407100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>366500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>355400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>393000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>371000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>336500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>314900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>327900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>315600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>214900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>186100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>163200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>172100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>86800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,62 +5161,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>334400</v>
+      </c>
+      <c r="E72" s="3">
         <v>251700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>174100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>114100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>66000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>59500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>57700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>62700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>74500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>74700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>76600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>76300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>58300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>25900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5065,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5469,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1443000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1354600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1280100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>849000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>795400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>784500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>797100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>535600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>565800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>566600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>571200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>540800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>544000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>541900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>523600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>506900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>487900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>479500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>463500</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E81" s="3">
         <v>77600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>60000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>53200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>25900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>30000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>38000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>32200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>25500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>27600</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,16 +5813,17 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>6400</v>
       </c>
       <c r="F83" s="3">
         <v>6400</v>
@@ -5634,64 +5832,67 @@
         <v>6400</v>
       </c>
       <c r="H83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I83" s="3">
         <v>6200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>4300</v>
       </c>
       <c r="V83" s="3">
         <v>4300</v>
       </c>
       <c r="W83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X83" s="3">
         <v>3900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7800</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E89" s="3">
         <v>267000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>50400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>42700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>29500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>44500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>18900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>20300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13600</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-108600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-91700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-67900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-68700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-62500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-33200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-56000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-63800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-101600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-68700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-33600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-56300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-48900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-20200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-13800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>192700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>24200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>17300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>34400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>56500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>64600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>30900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>9100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>16100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>12400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8600</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>400</v>
       </c>
       <c r="M101" s="3">
+        <v>400</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>3</v>
+      <c r="Y101" s="3">
+        <v>0</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E102" s="3">
         <v>162600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-44500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-82300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>195100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>253500</v>
+      </c>
+      <c r="E8" s="3">
         <v>219400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>231600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>218700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>143500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>122900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>103600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>102200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>91700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>82200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>72600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>64900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>68500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>78400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>97700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>114000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>98300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>119800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>112000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>107900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>102800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>94400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>139600</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E9" s="3">
         <v>105200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>111600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>115500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>82800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>85500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>83400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>80400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>77500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>71500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>68100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>54700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>53900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>58300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>69400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>80200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>65600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>69600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>62500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>54100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>52300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>82700</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E10" s="3">
         <v>114200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>120000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>103200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>32700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>50200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>49500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>53800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>52200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>42100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>56900</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>800</v>
       </c>
       <c r="I12" s="3">
         <v>800</v>
       </c>
       <c r="J12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K12" s="3">
         <v>700</v>
       </c>
       <c r="L12" s="3">
+        <v>700</v>
+      </c>
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>900</v>
-      </c>
-      <c r="R12" s="3">
-        <v>800</v>
       </c>
       <c r="S12" s="3">
         <v>800</v>
       </c>
       <c r="T12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="U12" s="3">
         <v>900</v>
       </c>
       <c r="V12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="W12" s="3">
         <v>1000</v>
       </c>
       <c r="X12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y12" s="3">
         <v>900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1400</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>3100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-38000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>900</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E17" s="3">
         <v>124500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>129000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>134000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>97400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>104100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>99800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>96800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>90000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>86100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>85800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>66900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>70700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>72700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>83900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>95900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>77300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>85700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>76500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>64700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>61600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>104800</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E18" s="3">
         <v>94900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>102600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>84700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>34100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>35500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>43200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>40400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>32800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>34800</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,53 +1582,54 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1606,110 +1640,116 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1300</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E21" s="3">
         <v>96500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>105700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>96600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>64300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>25900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>38800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>40400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>47500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>44500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>37100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>43900</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1730,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1756,12 +1796,12 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>138700</v>
+      </c>
+      <c r="E23" s="3">
         <v>88200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>99100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>90200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>57900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>18100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>33800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>35900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>43200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>40200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>33200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>36100</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E24" s="3">
         <v>5500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8500</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E26" s="3">
         <v>82700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>77600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>60000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>53200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>26200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>30300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>32200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>25500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>27600</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E27" s="3">
         <v>82700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>77600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>60000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>53200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>26200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>30300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>32200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>25500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>27600</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2277,8 +2338,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
@@ -2295,14 +2356,14 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="3">
-        <v>-300</v>
+      <c r="T29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U29" s="3">
         <v>-300</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>3</v>
+      <c r="V29" s="3">
+        <v>-300</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>3</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,53 +2540,56 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E32" s="3">
         <v>6700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2530,105 +2600,111 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E33" s="3">
         <v>82700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>77600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>60000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>53200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>25900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>30000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>38000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>32200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>25500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>27600</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E35" s="3">
         <v>82700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>77600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>60000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>53200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>25900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>30000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>38000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>32200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>25500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>27600</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,71 +3007,72 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>194100</v>
+      </c>
+      <c r="E41" s="3">
         <v>189000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>211600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>113000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>195300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>216600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1500</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,71 +3165,74 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E43" s="3">
         <v>177700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>196400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>164600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>127500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>129700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>113200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>113100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>106800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>111400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>113100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>94100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>91800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>121800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>113500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>139200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>137300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>160500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>172800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>150200</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3152,71 +3245,74 @@
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E44" s="3">
         <v>152300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>141800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>156300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>150500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>134600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>110200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>105300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>96700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>105600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>114100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>117000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>120900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>113400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>74800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>67500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>84400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>71800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>47300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>52400</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,71 +3325,74 @@
       <c r="AA44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E45" s="3">
         <v>25000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>42000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>40700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>34700</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3306,71 +3405,74 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>558600</v>
+      </c>
+      <c r="E46" s="3">
         <v>544000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>573900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>386300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>364500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>399300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>432300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>449600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>241500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>249800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>253600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>239600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>239500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>272000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>253600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>259300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>273800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>301300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>241500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>238800</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3383,68 +3485,71 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>559100</v>
+      </c>
+      <c r="E47" s="3">
         <v>541500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>530600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>512500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>117100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>100300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>92300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>92900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>97200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>98600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>79000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>80800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>80900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>76700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>68400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>71000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>64100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>63000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>55100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3460,71 +3565,74 @@
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1045500</v>
+      </c>
+      <c r="E48" s="3">
         <v>973100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>887100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>808700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>743800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>684200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>611700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>580400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>564900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>561400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>549800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>545000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>522300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>485700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>403000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>353800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>312500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>275700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>251700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>235300</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,62 +3657,62 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F49" s="3">
         <v>1500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1400</v>
       </c>
       <c r="G49" s="3">
         <v>1400</v>
       </c>
       <c r="H49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I49" s="3">
         <v>1500</v>
       </c>
       <c r="J49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1200</v>
       </c>
       <c r="R49" s="3">
         <v>1200</v>
       </c>
       <c r="S49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T49" s="3">
         <v>1300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>100</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,71 +3885,74 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14200</v>
+        <v>15700</v>
       </c>
       <c r="E52" s="3">
         <v>14200</v>
       </c>
       <c r="F52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="G52" s="3">
         <v>12500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>30600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>24400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>76100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,71 +4045,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2180300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2074200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2007300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1721400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1242600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1202500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1151000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1152500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>928600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>936800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>903100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>886100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>868700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>859600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>756800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>709700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>670100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>660000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>566100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>550300</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,71 +4187,72 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E57" s="3">
         <v>81700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>72200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>82900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>62200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>65400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>47700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>83100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>65500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>67800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>61900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>72000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>49600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>45400</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4134,22 +4265,25 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>13500</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>13500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>13500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -4166,8 +4300,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4211,71 +4345,74 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E59" s="3">
         <v>67000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>77300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>58100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>37600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>18700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16400</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4288,71 +4425,74 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E60" s="3">
         <v>148700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>163000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>148800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>120300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>131300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>88700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>79800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>60200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>82300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>68800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>78700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>122500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>90000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>91100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>79100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>120400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>68300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>61800</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,65 +4505,68 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>242300</v>
+      </c>
+      <c r="E61" s="3">
         <v>241900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>241600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>241200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>240800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>240400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>240100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>239700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>298900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>236700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>224100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>208700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>211100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>154600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>90100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>59100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>50000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>34000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4442,71 +4585,74 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>244900</v>
+      </c>
+      <c r="E62" s="3">
         <v>240600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>248100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>32500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>37700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>18300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25000</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,71 +4905,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>619300</v>
+      </c>
+      <c r="E66" s="3">
         <v>631200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>652700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>441300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>393600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>407100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>366500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>355400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>393000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>371000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>336500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>314900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>327900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>315600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>214900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>186100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>163200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>172100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>86600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>86800</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,65 +5335,68 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>449200</v>
+      </c>
+      <c r="E72" s="3">
         <v>334400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>251700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>174100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>114100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>60900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>66000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>59500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>62700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>74500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>74700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>76600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>76300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>58300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>42800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>25900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,71 +5655,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1561000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1443000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1354600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1280100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>849000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>795400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>784500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>797100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>535600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>565800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>566600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>571200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>540800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>544000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>541900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>523600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>506900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>487900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>479500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>463500</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E81" s="3">
         <v>82700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>77600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>60000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>53200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>25900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>30000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>38000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>32200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>25500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>27600</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,19 +6012,20 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E83" s="3">
         <v>8300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>6400</v>
       </c>
       <c r="G83" s="3">
         <v>6400</v>
@@ -5835,64 +6034,67 @@
         <v>6400</v>
       </c>
       <c r="I83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J83" s="3">
         <v>6200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4500</v>
-      </c>
-      <c r="V83" s="3">
-        <v>4300</v>
       </c>
       <c r="W83" s="3">
         <v>4300</v>
       </c>
       <c r="X83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>3900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7800</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E89" s="3">
         <v>126500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>267000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>50400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>23600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>42700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>29500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>44500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>18900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>20300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13600</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-108600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-91700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-67900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-68700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-62500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-63800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-51200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-98100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-139000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-101600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-68700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-55400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-69000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-33600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-56300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-51200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-48900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-31400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-20200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-15400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-13800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>192700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>24200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>17300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>34400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>56500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>64600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>30900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>16100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-12200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>12400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>8600</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>400</v>
       </c>
       <c r="N101" s="3">
+        <v>400</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>3</v>
+      <c r="Z101" s="3">
+        <v>0</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>162600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-44500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-82300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>195100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>235800</v>
+      </c>
+      <c r="E8" s="3">
         <v>253500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>219400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>231600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>218700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>143500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>122900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>103600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>102200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>91700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>82200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>72600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>64900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>68500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>78400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>97700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>114000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>98300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>119800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>112000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>107900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>102800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>94400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>139600</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E9" s="3">
         <v>87500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>105200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>111600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>115500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>82800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>85500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>83400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>80400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>77500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>71500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>68100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>54700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>53900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>58300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>69400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>80200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>65600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>69600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>62500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>54100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>50600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>52300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>82700</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E10" s="3">
         <v>166000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>114200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>120000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>103200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>60700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>28300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>32700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>50200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>49500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>53800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>52200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>42100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>56900</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,79 +1069,82 @@
         <v>1000</v>
       </c>
       <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>800</v>
       </c>
       <c r="J12" s="3">
         <v>800</v>
       </c>
       <c r="K12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L12" s="3">
         <v>700</v>
       </c>
       <c r="M12" s="3">
+        <v>700</v>
+      </c>
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>900</v>
-      </c>
-      <c r="S12" s="3">
-        <v>800</v>
       </c>
       <c r="T12" s="3">
         <v>800</v>
       </c>
       <c r="U12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="V12" s="3">
         <v>900</v>
       </c>
       <c r="W12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="X12" s="3">
         <v>1000</v>
       </c>
       <c r="Y12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z12" s="3">
         <v>900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1400</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,88 +1223,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-38000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>900</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E17" s="3">
         <v>106700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>124500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>129000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>134000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>97400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>104100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>99800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>96800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>90000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>86100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>85800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>66900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>70700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>72700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>83900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>95900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>77300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>85700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>76500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>64700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>62400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>61600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>104800</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E18" s="3">
         <v>146800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>94900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>102600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>84700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>21000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>34100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>35500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>43200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>40400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>32800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>34800</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,56 +1616,57 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1643,116 +1677,122 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1300</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E21" s="3">
         <v>145500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>96500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>105700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>96600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>64300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>25900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>38800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>40400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>47500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>44500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>37100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>43900</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1773,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1799,12 +1839,12 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1823,168 +1863,177 @@
       <c r="AB22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E23" s="3">
         <v>138700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>88200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>99100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>90200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>57900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>18100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>33800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>35900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>43200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>40200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>33200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>36100</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E24" s="3">
         <v>23900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8500</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E26" s="3">
         <v>114800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>82700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>77600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>60000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>53200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>26200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>30300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>32200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>25500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>27600</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E27" s="3">
         <v>114800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>82700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>77600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>60000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>53200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>26200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>38000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>32200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>25500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>27600</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2341,8 +2402,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
@@ -2359,14 +2420,14 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="3">
-        <v>-300</v>
+      <c r="U29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V29" s="3">
         <v>-300</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>3</v>
+      <c r="W29" s="3">
+        <v>-300</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>3</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,56 +2610,59 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>8100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2603,108 +2673,114 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E33" s="3">
         <v>114800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>82700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>77600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>60000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>53200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>25900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>30000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>38000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>32200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>25500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>27600</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E35" s="3">
         <v>114800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>82700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>77600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>60000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>53200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>25900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>30000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>38000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>32200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>25500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>27600</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,74 +3094,75 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E41" s="3">
         <v>194100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>189000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>211600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>68500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>113000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>195300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>216600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>23300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1500</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3088,8 +3175,11 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,74 +3258,77 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>155200</v>
+      </c>
+      <c r="E43" s="3">
         <v>144500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>177700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>196400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>164600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>127500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>113200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>113100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>106800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>111400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>113100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>94100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>91800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>121800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>113500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>139200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>137300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>160500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>172800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>150200</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3248,74 +3341,77 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E44" s="3">
         <v>184100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>152300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>141800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>156300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>150500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>134600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>110200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>105300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>96700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>105600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>114100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>117000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>120900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>113400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>74800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>67500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>84400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>71800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>47300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>52400</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,74 +3424,77 @@
       <c r="AB44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E45" s="3">
         <v>35900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>42000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>34300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>40700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>34700</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,74 +3507,77 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>532700</v>
+      </c>
+      <c r="E46" s="3">
         <v>558600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>544000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>573900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>386300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>364500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>399300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>432300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>449600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>241500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>249800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>253600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>239600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>239500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>272000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>253600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>259300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>273800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>301300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>241500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>238800</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3488,71 +3590,74 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>587500</v>
+      </c>
+      <c r="E47" s="3">
         <v>559100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>541500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>530600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>512500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>117100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>92300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>92900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>97200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>98600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>79000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>80800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>80900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>76700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>68400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>71000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>64100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>63000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>55100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3568,74 +3673,77 @@
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1144200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1045500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>973100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>887100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>808700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>743800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>684200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>611700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>580400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>564900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>561400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>549800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>545000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>522300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>485700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>403000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>353800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>312500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>275700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>251700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>235300</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3660,62 +3771,62 @@
         <v>1400</v>
       </c>
       <c r="F49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G49" s="3">
         <v>1500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1400</v>
       </c>
       <c r="H49" s="3">
         <v>1400</v>
       </c>
       <c r="I49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J49" s="3">
         <v>1500</v>
       </c>
       <c r="K49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L49" s="3">
         <v>1600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1200</v>
       </c>
       <c r="S49" s="3">
         <v>1200</v>
       </c>
       <c r="T49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U49" s="3">
         <v>1300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>100</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,74 +4005,77 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E52" s="3">
         <v>15700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>14200</v>
       </c>
       <c r="F52" s="3">
         <v>14200</v>
       </c>
       <c r="G52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H52" s="3">
         <v>12500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>25200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>30600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>24400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>15900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>76100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,74 +4171,77 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2283800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2180300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2074200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2007300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1721400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1242600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1202500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1151000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1152500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>928600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>936800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>903100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>886100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>868700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>859600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>756800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>709700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>670100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>660000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>566100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>550300</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,74 +4318,75 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E57" s="3">
         <v>64700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>81700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>72200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>82900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>62200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>65400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>83100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>65500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>67800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>61900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>72000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>49600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>45400</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4279,14 +4413,14 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>13500</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>13500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>13500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -4303,8 +4437,8 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4348,74 +4482,77 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E59" s="3">
         <v>67400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>77300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>52400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>38400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>37600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>35800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>39400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>24500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>23300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>18700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>16400</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4428,74 +4565,77 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E60" s="3">
         <v>132100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>148700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>163000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>148800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>120300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>131300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>88700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>82300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>78200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>68800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>78700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>122500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>90000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>91100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>79100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>120400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>68300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>61800</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4508,68 +4648,71 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>242700</v>
+      </c>
+      <c r="E61" s="3">
         <v>242300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>241900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>241600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>241200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>240800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>240400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>240100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>239700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>298900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>236700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>224100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>208700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>211100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>154600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>90100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>59100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>50000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>34000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4588,74 +4731,77 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>246600</v>
+      </c>
+      <c r="E62" s="3">
         <v>244900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>240600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>248100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>51300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>32500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>52000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>34100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>18300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25000</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,74 +5063,77 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>630800</v>
+      </c>
+      <c r="E66" s="3">
         <v>619300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>631200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>652700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>441300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>393600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>407100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>366500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>355400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>393000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>371000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>336500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>314900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>327900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>315600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>214900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>186100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>163200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>172100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>86600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>86800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,68 +5509,71 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>539400</v>
+      </c>
+      <c r="E72" s="3">
         <v>449200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>334400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>251700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>174100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>114100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>66000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>59500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>57700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>62700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>74500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>74700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>76600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>76300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>58300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>42800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>25900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,74 +5841,77 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1653000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1561000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1443000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1354600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1280100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>849000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>795400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>784500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>797100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>535600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>565800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>566600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>571200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>540800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>544000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>541900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>523600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>506900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>487900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>479500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>463500</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E81" s="3">
         <v>114800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>82700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>77600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>60000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>53200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>25900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>30000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>38000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>32200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>25500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>27600</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,22 +6211,23 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>6400</v>
       </c>
       <c r="H83" s="3">
         <v>6400</v>
@@ -6037,64 +6236,67 @@
         <v>6400</v>
       </c>
       <c r="J83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K83" s="3">
         <v>6200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4500</v>
-      </c>
-      <c r="W83" s="3">
-        <v>4300</v>
       </c>
       <c r="X83" s="3">
         <v>4300</v>
       </c>
       <c r="Y83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Z83" s="3">
         <v>3900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7800</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E89" s="3">
         <v>102900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>126500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>267000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>50400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>23600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>42700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>29500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>44500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>20300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>13600</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-84300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-108600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-91700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-67900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-68700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-62500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-63800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-51200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-98100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-139000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-101600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-68700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-55400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-69000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-64600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-51200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-31400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-20200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-13800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-25000</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>192700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>17300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>34400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>56500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>64600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>30900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>15900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>16100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-12200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>12400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>8600</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>400</v>
       </c>
       <c r="O101" s="3">
+        <v>400</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>3</v>
+      <c r="AA101" s="3">
+        <v>0</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E102" s="3">
         <v>5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>162600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-82300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>195100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>13200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LTHM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>LTHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>211400</v>
+      </c>
+      <c r="E8" s="3">
         <v>235800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>253500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>219400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>231600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>218700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>143500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>122900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>103600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>102200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>91700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>82200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>72600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>64900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>68500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>78400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>97700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>114000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>98300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>119800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>112000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>107900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>102800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>94400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>139600</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E9" s="3">
         <v>92100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>87500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>105200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>111600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>115500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>82800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>85500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>83400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>80400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>77500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>71500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>68100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>54700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>53900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>58300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>69400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>80200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>65600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>69600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>62500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>54100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>50600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>52300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>82700</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E10" s="3">
         <v>143700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>166000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>114200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>120000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>103200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>20100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>28300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>33800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>32700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>50200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>49500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>53800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>52200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>42100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>56900</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,91 +1073,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
       </c>
       <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>800</v>
       </c>
       <c r="K12" s="3">
         <v>800</v>
       </c>
       <c r="L12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M12" s="3">
         <v>700</v>
       </c>
       <c r="N12" s="3">
+        <v>700</v>
+      </c>
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>900</v>
-      </c>
-      <c r="T12" s="3">
-        <v>800</v>
       </c>
       <c r="U12" s="3">
         <v>800</v>
       </c>
       <c r="V12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="W12" s="3">
         <v>900</v>
       </c>
       <c r="X12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Y12" s="3">
         <v>1000</v>
       </c>
       <c r="Z12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA12" s="3">
         <v>900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1400</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,91 +1243,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E14" s="3">
         <v>24500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-38000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>900</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E17" s="3">
         <v>135200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>106700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>124500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>129000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>134000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>97400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>104100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>99800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>96800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>90000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>86100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>85800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>66900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>70700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>72700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>83900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>95900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>77300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>85700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>76500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>64700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>62400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>61600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>104800</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E18" s="3">
         <v>100600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>146800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>94900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>102600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>84700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>46100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>21000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>34100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>35500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>43200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>40400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>32800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>34800</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,59 +1650,60 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1680,111 +1714,117 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1300</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>104400</v>
+      </c>
+      <c r="E21" s="3">
         <v>111800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>145500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>96500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>105700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>96600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>64300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>25900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>38800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>40400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>47500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>44500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>37100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>43900</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1794,8 +1834,8 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1816,25 +1856,25 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1842,12 +1882,12 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1866,174 +1906,183 @@
       <c r="AC22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E23" s="3">
         <v>104800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>138700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>88200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>99100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>90200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>57900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>13800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>18100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>21000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>33800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>35900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>43200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>40200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>33200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>36100</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E24" s="3">
         <v>14600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>30200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8500</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E26" s="3">
         <v>90200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>114800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>82700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>77600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>60000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>26200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>30300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>32200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>25500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>27600</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E27" s="3">
         <v>90200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>114800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>82700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>77600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>60000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>53200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>26200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>30300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>38000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>32200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>25500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>27600</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2405,8 +2466,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
@@ -2423,14 +2484,14 @@
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V29" s="3">
-        <v>-300</v>
+      <c r="V29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W29" s="3">
         <v>-300</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>3</v>
+      <c r="X29" s="3">
+        <v>-300</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>3</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,59 +2680,62 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2676,111 +2746,117 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E33" s="3">
         <v>90200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>114800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>82700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>77600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>60000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>53200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>25900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>30000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>38000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>32200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>25500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>27600</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E35" s="3">
         <v>90200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>114800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>82700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>77600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>60000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>53200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>25900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>30000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>38000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>32200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>25500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>27600</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,77 +3181,78 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E41" s="3">
         <v>167800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>194100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>189000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>211600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>68500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>113000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>195300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>216600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>28300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1500</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3265,11 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,77 +3351,80 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E43" s="3">
         <v>155200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>144500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>177700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>196400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>164600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>127500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>113200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>113100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>106800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>111400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>113100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>94100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>91800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>121800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>113500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>139200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>137300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>160500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>172800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>150200</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3344,77 +3437,80 @@
       <c r="AC43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>202700</v>
+      </c>
+      <c r="E44" s="3">
         <v>197800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>184100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>152300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>141800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>156300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>150500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>134600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>110200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>105300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>96700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>105600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>114100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>117000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>120900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>113400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>74800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>67500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>84400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>71800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>47300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>52400</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3427,77 +3523,80 @@
       <c r="AC44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
         <v>11900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>42000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>34300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>40700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>34700</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3510,77 +3609,80 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>478200</v>
+      </c>
+      <c r="E46" s="3">
         <v>532700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>558600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>544000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>573900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>386300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>364500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>399300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>432300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>449600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>241500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>249800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>253600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>239600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>239500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>272000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>253600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>259300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>273800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>301300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>241500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>238800</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3593,74 +3695,77 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>640400</v>
+      </c>
+      <c r="E47" s="3">
         <v>587500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>559100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>541500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>530600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>512500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>117100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>92300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>92900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>97200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>98600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>79000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>80800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>80900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>76700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>68400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>71000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>64100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>63000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>55100</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3676,77 +3781,80 @@
       <c r="AC47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1221800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1144200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1045500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>973100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>887100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>808700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>743800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>684200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>611700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>580400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>564900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>561400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>549800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>545000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>522300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>485700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>403000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>353800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>312500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>275700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>251700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>235300</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3759,13 +3867,16 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="3">
         <v>1400</v>
@@ -3774,62 +3885,62 @@
         <v>1400</v>
       </c>
       <c r="G49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H49" s="3">
         <v>1500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1400</v>
       </c>
       <c r="I49" s="3">
         <v>1400</v>
       </c>
       <c r="J49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K49" s="3">
         <v>1500</v>
       </c>
       <c r="L49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M49" s="3">
         <v>1600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1100</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1200</v>
       </c>
       <c r="T49" s="3">
         <v>1200</v>
       </c>
       <c r="U49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V49" s="3">
         <v>1300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>100</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,77 +4125,80 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E52" s="3">
         <v>18000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>14200</v>
       </c>
       <c r="G52" s="3">
         <v>14200</v>
       </c>
       <c r="H52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I52" s="3">
         <v>12500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>25200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>24100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>30600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>24400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>15900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>76100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,77 +4297,80 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2361100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2283800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2180300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2074200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2007300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1721400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1242600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1202500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1151000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1152500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>928600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>936800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>903100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>886100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>868700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>859600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>756800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>709700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>670100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>660000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>566100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>550300</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,77 +4449,78 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E57" s="3">
         <v>80500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>81700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>72200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>82900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>62200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>65400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>83100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>65500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>67800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>61900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>72000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>49600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>45400</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4402,8 +4533,11 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4416,14 +4550,14 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>13500</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>13500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>13500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -4440,8 +4574,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4485,77 +4619,80 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E59" s="3">
         <v>61000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>77300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>52400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>38400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>37600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>39400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>24500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>23300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16400</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4568,77 +4705,80 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E60" s="3">
         <v>141500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>132100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>148700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>163000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>148800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>120300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>131300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>88700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>82300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>78200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>68800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>78700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>122500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>90000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>91100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>79100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>120400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>68300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>61800</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4651,71 +4791,74 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E61" s="3">
         <v>242700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>242300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>241900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>241600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>241200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>240800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>240400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>240100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>239700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>298900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>236700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>224100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>208700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>211100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>154600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>90100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>59100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>50000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>34000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4734,77 +4877,80 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>239100</v>
+      </c>
+      <c r="E62" s="3">
         <v>246600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>244900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>240600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>248100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>51300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>32500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>52000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>38500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>34100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>18300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25000</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,77 +5221,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>620500</v>
+      </c>
+      <c r="E66" s="3">
         <v>630800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>619300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>631200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>652700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>441300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>393600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>407100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>366500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>355400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>393000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>371000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>336500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>314900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>327900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>315600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>214900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>186100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>163200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>172100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>86600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>86800</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,71 +5683,74 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>626800</v>
+      </c>
+      <c r="E72" s="3">
         <v>539400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>449200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>334400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>251700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>174100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>114100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>60900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>66000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>59500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>57700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>62700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>74500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>74700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>76600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>76300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>58300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>25900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,77 +6027,80 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1740600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1653000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1561000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1443000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1354600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1280100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>849000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>795400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>784500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>797100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>535600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>565800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>566600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>571200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>540800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>544000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>541900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>523600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>506900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>487900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>479500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>463500</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E81" s="3">
         <v>90200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>114800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>82700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>77600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>60000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>53200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>25900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>30000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>38000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>32200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>25500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>27600</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,25 +6410,26 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>6400</v>
       </c>
       <c r="I83" s="3">
         <v>6400</v>
@@ -6239,64 +6438,67 @@
         <v>6400</v>
       </c>
       <c r="K83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L83" s="3">
         <v>6200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4500</v>
-      </c>
-      <c r="X83" s="3">
-        <v>4300</v>
       </c>
       <c r="Y83" s="3">
         <v>4300</v>
       </c>
       <c r="Z83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AA83" s="3">
         <v>3900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>7800</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E89" s="3">
         <v>78700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>102900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>126500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>267000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>50400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>23600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>42700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>29500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>44500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>18900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>20300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>13600</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-81600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-84300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-108600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-91700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-67900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-68700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-62500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-63800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-51200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-135300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-82100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-98100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-139000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-101600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-68700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-55400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-69000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-56300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-64600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-51200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-31400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-20200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-15400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-25000</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-21500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>192700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>17300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>34400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>56500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>64600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>30900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>9100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>15900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>16100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-12200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>12400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>8600</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>400</v>
       </c>
       <c r="P101" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>3</v>
+      <c r="AB101" s="3">
+        <v>0</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>162600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-44500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-82300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>195100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>13600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>13200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
